--- a/5 Ecological impacts/avian_deaths_summary.xlsx
+++ b/5 Ecological impacts/avian_deaths_summary.xlsx
@@ -493,17 +493,17 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.01 (0.00-0.12)</t>
+          <t>0.01 (0.00-0.02)</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.01 (0.00-0.12)</t>
+          <t>0.01 (0.00-0.02)</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0.01 (0.00-0.12)</t>
+          <t>0.01 (0.00-0.02)</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -513,17 +513,17 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.01 (0.00-0.12)</t>
+          <t>0.01 (0.00-0.02)</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>0.01 (0.00-0.12)</t>
+          <t>0.01 (0.00-0.02)</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>0.00 (0.00-0.05)</t>
+          <t>0.00 (0.00-0.01)</t>
         </is>
       </c>
     </row>
@@ -540,17 +540,17 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0.08 (0.00-0.50)</t>
+          <t>0.08 (0.02-0.16)</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.08 (0.00-0.50)</t>
+          <t>0.08 (0.02-0.16)</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0.08 (0.00-0.50)</t>
+          <t>0.08 (0.02-0.16)</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -560,17 +560,17 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.08 (0.00-0.50)</t>
+          <t>0.08 (0.02-0.16)</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>0.08 (0.00-0.50)</t>
+          <t>0.08 (0.02-0.16)</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>0.03 (0.00-0.21)</t>
+          <t>0.03 (0.01-0.07)</t>
         </is>
       </c>
     </row>
@@ -587,17 +587,17 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0.21 (0.00-17.78)</t>
+          <t>0.21 (0.01-0.43)</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.21 (0.00-17.78)</t>
+          <t>0.21 (0.01-0.43)</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0.21 (0.00-17.78)</t>
+          <t>0.21 (0.01-0.43)</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -607,17 +607,17 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.21 (0.00-17.78)</t>
+          <t>0.21 (0.01-0.43)</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>0.21 (0.00-17.78)</t>
+          <t>0.21 (0.01-0.43)</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>0.05 (0.00-3.92)</t>
+          <t>0.05 (0.00-0.10)</t>
         </is>
       </c>
     </row>
@@ -634,17 +634,17 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0.29 (0.05-0.78)</t>
+          <t>0.29 (0.06-0.54)</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.29 (0.05-0.78)</t>
+          <t>0.29 (0.06-0.54)</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>0.29 (0.05-0.78)</t>
+          <t>0.29 (0.06-0.54)</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -654,17 +654,17 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.29 (0.05-0.78)</t>
+          <t>0.29 (0.06-0.54)</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>0.29 (0.05-0.78)</t>
+          <t>0.29 (0.06-0.54)</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>0.08 (0.02-0.20)</t>
+          <t>0.08 (0.02-0.14)</t>
         </is>
       </c>
     </row>

--- a/5 Ecological impacts/avian_deaths_summary.xlsx
+++ b/5 Ecological impacts/avian_deaths_summary.xlsx
@@ -634,17 +634,17 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0.29 (0.06-0.54)</t>
+          <t>0.29 (0.05-0.78)</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.29 (0.06-0.54)</t>
+          <t>0.29 (0.05-0.78)</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>0.29 (0.06-0.54)</t>
+          <t>0.29 (0.05-0.78)</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -654,17 +654,17 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.29 (0.06-0.54)</t>
+          <t>0.29 (0.05-0.78)</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>0.29 (0.06-0.54)</t>
+          <t>0.29 (0.05-0.78)</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>0.08 (0.02-0.14)</t>
+          <t>0.08 (0.02-0.20)</t>
         </is>
       </c>
     </row>
